--- a/biology/Médecine/Jacques-François_de_Villiers/Jacques-François_de_Villiers.xlsx
+++ b/biology/Médecine/Jacques-François_de_Villiers/Jacques-François_de_Villiers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jacques-Fran%C3%A7ois_de_Villiers</t>
+          <t>Jacques-François_de_Villiers</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques-François de Villiers, né à Saint-Maixent le 5 juin 1727 et mort en 1794, est un médecin et traducteur français. 
 Il exerce comme médecin des camps et armées du roi en Allemagne pendant la guerre de Sept Ans. Il est ensuite docteur-régent de la faculté de médecine de Paris, puis docteur à Pont-à-Mousson et médecin de l’École royale vétérinaire. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jacques-Fran%C3%A7ois_de_Villiers</t>
+          <t>Jacques-François_de_Villiers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Méthode pour rappeler les noyés à la vie, recueillie des meilleurs auteurs (1771)
 Traductions de l’anglais
